--- a/RLFS_2022_Data_clean.xlsx
+++ b/RLFS_2022_Data_clean.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20415" windowHeight="7695" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="20415" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table_names" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
   <si>
     <t>Table 0: Summary table of youth between 16-30</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>University</t>
-  </si>
-  <si>
-    <t>Long-term unemployed youth</t>
   </si>
   <si>
     <t>Youth NEET</t>
@@ -355,13 +352,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="###0"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="###0"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -448,6 +445,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -460,11 +465,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,16 +495,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,8 +509,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,17 +535,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,9 +548,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,22 +563,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,13 +591,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,13 +639,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,25 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,13 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +705,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,37 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,13 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,6 +820,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -847,11 +859,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,200 +917,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1100,25 +1097,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,7 +1148,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1163,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1512,7 +1509,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1650,8 +1647,8 @@
   <sheetPr/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1663,24 +1660,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3">
         <v>20.5</v>
@@ -1689,15 +1686,15 @@
         <v>40232</v>
       </c>
       <c r="D2" s="5">
-        <v>-1.9576</v>
+        <v>-1.9567</v>
       </c>
       <c r="E2" s="5">
-        <v>30.0605</v>
+        <v>30.0636</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3">
         <v>21.2</v>
@@ -1706,15 +1703,15 @@
         <v>78762</v>
       </c>
       <c r="D3" s="5">
-        <v>-1.9461</v>
+        <v>-1.8898</v>
       </c>
       <c r="E3" s="5">
-        <v>30.0811</v>
+        <v>30.1127</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3">
         <v>20.7</v>
@@ -1723,15 +1720,15 @@
         <v>52090</v>
       </c>
       <c r="D4" s="5">
-        <v>-1.9536</v>
+        <v>-1.9689</v>
       </c>
       <c r="E4" s="5">
-        <v>30.0625</v>
+        <v>30.0925</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3">
         <v>21.3</v>
@@ -1748,7 +1745,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3">
         <v>20.9</v>
@@ -1765,7 +1762,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3">
         <v>21.9</v>
@@ -1782,7 +1779,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3">
         <v>19.7</v>
@@ -1799,7 +1796,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3">
         <v>21.9</v>
@@ -1816,7 +1813,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3">
         <v>20.5</v>
@@ -1833,7 +1830,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3">
         <v>24</v>
@@ -1850,7 +1847,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="3">
         <v>22.1</v>
@@ -1867,7 +1864,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="3">
         <v>22.7</v>
@@ -1884,7 +1881,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3">
         <v>19.9</v>
@@ -1901,7 +1898,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3">
         <v>19.8</v>
@@ -1918,7 +1915,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="3">
         <v>19.1</v>
@@ -1935,7 +1932,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="3">
         <v>17.6</v>
@@ -1952,7 +1949,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3">
         <v>21.9</v>
@@ -1969,7 +1966,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="3">
         <v>25.8</v>
@@ -1986,7 +1983,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="3">
         <v>23.2</v>
@@ -2003,7 +2000,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="3">
         <v>16.9</v>
@@ -2020,7 +2017,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="3">
         <v>18.7</v>
@@ -2037,7 +2034,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="3">
         <v>24.3</v>
@@ -2054,7 +2051,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="3">
         <v>20.7</v>
@@ -2071,7 +2068,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="3">
         <v>19.6</v>
@@ -2088,7 +2085,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="3">
         <v>19.3</v>
@@ -2105,7 +2102,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="3">
         <v>22.5</v>
@@ -2122,7 +2119,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="3">
         <v>15.9</v>
@@ -2139,7 +2136,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="3">
         <v>16.1</v>
@@ -2156,7 +2153,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="3">
         <v>15.6</v>
@@ -2173,7 +2170,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" s="3">
         <v>23.7</v>
@@ -2197,13 +2194,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="28.7" customWidth="1"/>
     <col min="2" max="2" width="9.3" customWidth="1"/>
@@ -2240,22 +2237,22 @@
         <v>16</v>
       </c>
       <c r="B2" s="33">
-        <v>467582</v>
+        <v>466370</v>
       </c>
       <c r="C2" s="3">
         <v>25.6</v>
       </c>
       <c r="D2" s="33">
-        <v>215941</v>
-      </c>
-      <c r="E2" s="5">
-        <v>34323</v>
+        <v>215337</v>
+      </c>
+      <c r="E2" s="33">
+        <v>251034</v>
       </c>
       <c r="F2" s="6">
-        <v>109655</v>
+        <v>110663</v>
       </c>
       <c r="G2" s="6">
-        <v>357927</v>
+        <v>355707</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2378,44 +2375,21 @@
         <v>22</v>
       </c>
       <c r="B8" s="33">
-        <v>294577</v>
+        <v>1217890</v>
       </c>
       <c r="C8" s="5">
-        <v>63</v>
+        <v>35.6</v>
       </c>
       <c r="D8" s="6">
-        <v>101973</v>
+        <v>504465</v>
       </c>
       <c r="E8" s="6">
-        <v>192604</v>
+        <v>713425</v>
       </c>
       <c r="F8" s="6">
-        <v>33071</v>
+        <v>79048</v>
       </c>
       <c r="G8" s="6">
-        <v>261506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="33">
-        <v>1217890</v>
-      </c>
-      <c r="C9" s="5">
-        <v>35.6</v>
-      </c>
-      <c r="D9" s="6">
-        <v>504465</v>
-      </c>
-      <c r="E9" s="6">
-        <v>713425</v>
-      </c>
-      <c r="F9" s="6">
-        <v>79048</v>
-      </c>
-      <c r="G9" s="6">
         <v>1138842</v>
       </c>
     </row>
@@ -2442,7 +2416,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -2482,7 +2456,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11">
         <v>994230</v>
@@ -2504,7 +2478,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="11">
         <v>6969356</v>
@@ -2649,7 +2623,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -2663,7 +2637,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="25">
         <v>362908</v>
@@ -2677,7 +2651,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="25">
         <v>11302</v>
@@ -2691,7 +2665,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="25">
         <v>23473</v>
@@ -2705,7 +2679,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="25">
         <v>82386</v>
@@ -2719,7 +2693,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="25">
         <v>139032</v>
@@ -2733,7 +2707,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="25">
         <v>48203</v>
@@ -2747,7 +2721,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="25">
         <v>15852</v>
@@ -2761,7 +2735,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="25">
         <v>18211</v>
@@ -2775,7 +2749,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="25">
         <v>15707</v>
@@ -2806,8 +2780,8 @@
   <sheetPr/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -2822,13 +2796,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="24"/>
@@ -2839,7 +2813,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="22">
         <v>1217890</v>
@@ -2850,7 +2824,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="23">
         <v>79048</v>
@@ -2861,7 +2835,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="22">
         <v>1138842</v>
@@ -2872,7 +2846,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="22">
         <v>800000</v>
@@ -2883,7 +2857,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="22">
         <v>25000</v>
@@ -2894,7 +2868,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="22">
         <v>775000</v>
@@ -2905,7 +2879,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="22">
         <v>2017890</v>
@@ -2916,7 +2890,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="22">
         <v>104048</v>
@@ -2927,7 +2901,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="22">
         <v>1913842</v>
@@ -2962,10 +2936,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>10</v>
@@ -2985,10 +2959,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>47</v>
       </c>
       <c r="C2" s="11">
         <v>743524</v>
@@ -3008,10 +2982,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="11">
         <v>1357468</v>
@@ -3031,10 +3005,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="11">
         <v>281998</v>
@@ -3054,10 +3028,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="11">
         <v>467582</v>
@@ -3077,10 +3051,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="11">
         <v>1461614</v>
@@ -3100,10 +3074,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="11">
         <v>1734345</v>
@@ -3152,36 +3126,36 @@
   <sheetData>
     <row r="1" ht="60" spans="1:9">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="14">
         <v>3559394</v>
@@ -3214,7 +3188,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="14">
         <v>1085303</v>
@@ -3404,7 +3378,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -3416,21 +3390,21 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="9">
         <v>466370</v>
@@ -3456,7 +3430,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="11">
         <v>199353</v>
@@ -3482,7 +3456,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="11">
         <v>116700</v>
@@ -3508,7 +3482,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="11">
         <v>51803</v>
@@ -3534,7 +3508,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="11">
         <v>49635</v>
@@ -3560,7 +3534,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="11">
         <v>48879</v>
@@ -3610,16 +3584,16 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -3696,7 +3670,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="6">
         <v>387173</v>
@@ -3710,7 +3684,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="6">
         <v>1347265</v>
@@ -3724,7 +3698,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="6">
         <v>405258</v>
@@ -3738,7 +3712,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <v>1419692</v>
